--- a/results/benchmark_report_cpatonn_GLM-4.5-Air-AWQ-4bit.xlsx
+++ b/results/benchmark_report_cpatonn_GLM-4.5-Air-AWQ-4bit.xlsx
@@ -464,17 +464,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1x6000</t>
+          <t>4x4090</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2008.1</v>
+        <v>1731.44</v>
       </c>
       <c r="C2" t="n">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1784439685938616</v>
+        <v>0.2502733755332748</v>
       </c>
     </row>
   </sheetData>

--- a/results/benchmark_report_cpatonn_GLM-4.5-Air-AWQ-4bit.xlsx
+++ b/results/benchmark_report_cpatonn_GLM-4.5-Air-AWQ-4bit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,17 +464,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>1x6000</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3168.82</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1130809996570753</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>4x4090</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>1731.44</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1.56</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.2502733755332748</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4x5090</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4622.08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1562548078402412</v>
       </c>
     </row>
   </sheetData>
